--- a/sample_sheet.xlsx
+++ b/sample_sheet.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/YWang/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F2609B8-5360-2B49-828A-A6C6B837EC67}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{667FAAC8-0F2D-6548-86F4-A26327C1403C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="16380" windowHeight="13140" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="16380" windowHeight="13140" tabRatio="500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="atac_chip" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="21">
   <si>
     <t>Field</t>
   </si>
@@ -39,114 +39,9 @@
     <t>Notes</t>
   </si>
   <si>
-    <t>email</t>
-  </si>
-  <si>
-    <t>f.metge@age.mpg.de</t>
-  </si>
-  <si>
-    <t>your contact email</t>
-  </si>
-  <si>
     <t>Group</t>
   </si>
   <si>
-    <t>Bioinformatics</t>
-  </si>
-  <si>
-    <t>Select from dropdown menu</t>
-  </si>
-  <si>
-    <t>Folder</t>
-  </si>
-  <si>
-    <t>John_Doe_ChIP_sequencing_Arpil2021</t>
-  </si>
-  <si>
-    <t>Folder name on store-age</t>
-  </si>
-  <si>
-    <t xml:space="preserve">md5sums </t>
-  </si>
-  <si>
-    <t>md5_checksums.tab</t>
-  </si>
-  <si>
-    <t>File with md5sums</t>
-  </si>
-  <si>
-    <t>Project title</t>
-  </si>
-  <si>
-    <t>chip_full_auto_test</t>
-  </si>
-  <si>
-    <t>Give a title to your project</t>
-  </si>
-  <si>
-    <t>Organism</t>
-  </si>
-  <si>
-    <t>hsapiens</t>
-  </si>
-  <si>
-    <t>seq</t>
-  </si>
-  <si>
-    <t>single</t>
-  </si>
-  <si>
-    <t>single or paired end sequencing</t>
-  </si>
-  <si>
-    <t>input</t>
-  </si>
-  <si>
-    <t>yes</t>
-  </si>
-  <si>
-    <t>Do you have IP and Input?</t>
-  </si>
-  <si>
-    <t>Adapter sequence</t>
-  </si>
-  <si>
-    <t>CTGTCTCTTATACACATCT</t>
-  </si>
-  <si>
-    <t>potential adapter sequence to trim, e.g. transposase adapter</t>
-  </si>
-  <si>
-    <t>Fastq quality</t>
-  </si>
-  <si>
-    <t>sanger</t>
-  </si>
-  <si>
-    <t>Most sequencing comes with sanger encoded quality scores</t>
-  </si>
-  <si>
-    <t>Additional MACS2 parameter</t>
-  </si>
-  <si>
-    <t>For aditional parameters check MACS2 tutorial</t>
-  </si>
-  <si>
-    <t>Chromosomes to analyse</t>
-  </si>
-  <si>
-    <t>1:22</t>
-  </si>
-  <si>
-    <t>Not the actual names but the indices</t>
-  </si>
-  <si>
-    <t>exclude mitochondria</t>
-  </si>
-  <si>
-    <t>Should reads mapped to mitochondria be removed from the analysis</t>
-  </si>
-  <si>
     <t>Sample</t>
   </si>
   <si>
@@ -159,12 +54,6 @@
     <t>Read 2</t>
   </si>
   <si>
-    <t>Hetero_TFAM_cGAS_1</t>
-  </si>
-  <si>
-    <t>Hetero_TFAM_IgG_1</t>
-  </si>
-  <si>
     <t>WT_MEF_cGAS_1</t>
   </si>
   <si>
@@ -183,21 +72,6 @@
     <t>WT_MEF_IgG_READ1.fastq.gz</t>
   </si>
   <si>
-    <t>WT_TFAM_cGAS_1</t>
-  </si>
-  <si>
-    <t>WT_TFAM_IgG_1</t>
-  </si>
-  <si>
-    <t>YKO_MEF_cGAS_1</t>
-  </si>
-  <si>
-    <t>YKO_MEF_IgG_1</t>
-  </si>
-  <si>
-    <t>Hetero_TFAM_Input_1</t>
-  </si>
-  <si>
     <t>WT_MEF_Input_1</t>
   </si>
   <si>
@@ -207,12 +81,6 @@
     <t>WT_MEF_Input_READ1.fastq.gz</t>
   </si>
   <si>
-    <t>WT_TFAM_Input_1</t>
-  </si>
-  <si>
-    <t>YKO_MEF_Input_1</t>
-  </si>
-  <si>
     <t>ChIP Sample</t>
   </si>
   <si>
@@ -223,78 +91,6 @@
   </si>
   <si>
     <t>Species</t>
-  </si>
-  <si>
-    <t>Adam_Antebi</t>
-  </si>
-  <si>
-    <t>celegans</t>
-  </si>
-  <si>
-    <t>Aleksandra_Filipovska</t>
-  </si>
-  <si>
-    <t>mmusculus</t>
-  </si>
-  <si>
-    <t>Constantinos_Demetriades</t>
-  </si>
-  <si>
-    <t>dmelanogaster</t>
-  </si>
-  <si>
-    <t>CRISPR_Screening</t>
-  </si>
-  <si>
-    <t>nfurzeri</t>
-  </si>
-  <si>
-    <t>Dario_Valenzano</t>
-  </si>
-  <si>
-    <t>scerevisiae</t>
-  </si>
-  <si>
-    <t>Ivan_Matic</t>
-  </si>
-  <si>
-    <t>James_Stewart</t>
-  </si>
-  <si>
-    <t>Lena_Pernas</t>
-  </si>
-  <si>
-    <t>Linda_Partridge</t>
-  </si>
-  <si>
-    <t>Martin_Denzel</t>
-  </si>
-  <si>
-    <t>Martin_Graef</t>
-  </si>
-  <si>
-    <t>Metabolomics</t>
-  </si>
-  <si>
-    <t>Nils_Larson</t>
-  </si>
-  <si>
-    <t>Peter_Tessarz</t>
-  </si>
-  <si>
-    <t>Phenotyping</t>
-  </si>
-  <si>
-    <t>Proteomics</t>
-  </si>
-  <si>
-    <t>Ron_Jachimowicz</t>
-  </si>
-  <si>
-    <t>Sara_Wickstroem</t>
-  </si>
-  <si>
-    <t>Thomas_Langer</t>
   </si>
 </sst>
 </file>
@@ -790,10 +586,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C14"/>
+  <dimension ref="A1:C13"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B26" sqref="B26"/>
+      <selection activeCell="A2" sqref="A2:G14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -814,145 +610,8 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>9</v>
-      </c>
-      <c r="B4" t="s">
-        <v>10</v>
-      </c>
-      <c r="C4" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
-        <v>12</v>
-      </c>
-      <c r="B5" t="s">
-        <v>13</v>
-      </c>
-      <c r="C5" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
-        <v>15</v>
-      </c>
-      <c r="B6" t="s">
-        <v>16</v>
-      </c>
-      <c r="C6" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
-        <v>18</v>
-      </c>
-      <c r="B7" t="s">
-        <v>19</v>
-      </c>
-      <c r="C7" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
-        <v>20</v>
-      </c>
-      <c r="B8" t="s">
-        <v>21</v>
-      </c>
-      <c r="C8" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
-        <v>23</v>
-      </c>
-      <c r="B9" t="s">
-        <v>24</v>
-      </c>
-      <c r="C9" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
-        <v>26</v>
-      </c>
-      <c r="B10" t="s">
-        <v>27</v>
-      </c>
-      <c r="C10" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
-        <v>29</v>
-      </c>
-      <c r="B11" t="s">
-        <v>30</v>
-      </c>
-      <c r="C11" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A12" t="s">
-        <v>32</v>
-      </c>
-      <c r="C12" t="s">
-        <v>33</v>
-      </c>
-    </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A13" t="s">
-        <v>34</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="C13" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A14" t="s">
-        <v>37</v>
-      </c>
-      <c r="B14" t="s">
-        <v>24</v>
-      </c>
-      <c r="C14" t="s">
-        <v>38</v>
-      </c>
+      <c r="B13" s="2"/>
     </row>
   </sheetData>
   <dataValidations count="3">
@@ -969,9 +628,6 @@
       <formula2>0</formula2>
     </dataValidation>
   </dataValidations>
-  <hyperlinks>
-    <hyperlink ref="B2" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
-  </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
   <extLst>
@@ -996,7 +652,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:E4"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
@@ -1013,61 +669,61 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>39</v>
+        <v>4</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>41</v>
-      </c>
       <c r="E1" s="3" t="s">
-        <v>42</v>
+        <v>7</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>45</v>
+        <v>8</v>
       </c>
       <c r="B2" t="s">
-        <v>46</v>
+        <v>9</v>
       </c>
       <c r="C2">
         <v>1</v>
       </c>
       <c r="D2" t="s">
-        <v>47</v>
+        <v>10</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>48</v>
+        <v>11</v>
       </c>
       <c r="B3" t="s">
-        <v>49</v>
+        <v>12</v>
       </c>
       <c r="C3">
         <v>1</v>
       </c>
       <c r="D3" t="s">
-        <v>50</v>
+        <v>13</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>56</v>
+        <v>14</v>
       </c>
       <c r="B4" t="s">
-        <v>57</v>
+        <v>15</v>
       </c>
       <c r="C4">
         <v>1</v>
       </c>
       <c r="D4" t="s">
-        <v>58</v>
+        <v>16</v>
       </c>
     </row>
   </sheetData>
@@ -1078,10 +734,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:B9"/>
+  <dimension ref="A1:B3"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1093,74 +749,26 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
-        <v>61</v>
+        <v>17</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>62</v>
+        <v>18</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>43</v>
+        <v>8</v>
       </c>
       <c r="B2" t="s">
-        <v>55</v>
+        <v>14</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>44</v>
+        <v>11</v>
       </c>
       <c r="B3" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>45</v>
-      </c>
-      <c r="B4" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
-        <v>48</v>
-      </c>
-      <c r="B5" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
-        <v>51</v>
-      </c>
-      <c r="B6" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
-        <v>52</v>
-      </c>
-      <c r="B7" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
-        <v>53</v>
-      </c>
-      <c r="B8" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
-        <v>54</v>
-      </c>
-      <c r="B9" t="s">
-        <v>60</v>
+        <v>14</v>
       </c>
     </row>
   </sheetData>
@@ -1178,7 +786,7 @@
   <dimension ref="A1:B21"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="B21" sqref="A2:B21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1190,142 +798,90 @@
   <sheetData>
     <row r="1" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A1" s="5" t="s">
-        <v>63</v>
+        <v>19</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>64</v>
+        <v>20</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A2" s="6" t="s">
-        <v>65</v>
-      </c>
-      <c r="B2" s="7" t="s">
-        <v>66</v>
-      </c>
+      <c r="A2" s="6"/>
+      <c r="B2" s="7"/>
     </row>
     <row r="3" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A3" s="6" t="s">
-        <v>67</v>
-      </c>
-      <c r="B3" s="7" t="s">
-        <v>68</v>
-      </c>
+      <c r="A3" s="6"/>
+      <c r="B3" s="7"/>
     </row>
     <row r="4" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A4" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="B4" s="7" t="s">
-        <v>19</v>
-      </c>
+      <c r="A4" s="6"/>
+      <c r="B4" s="7"/>
     </row>
     <row r="5" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A5" s="6" t="s">
-        <v>69</v>
-      </c>
-      <c r="B5" s="7" t="s">
-        <v>70</v>
-      </c>
+      <c r="A5" s="6"/>
+      <c r="B5" s="7"/>
     </row>
     <row r="6" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A6" s="6" t="s">
-        <v>71</v>
-      </c>
-      <c r="B6" s="7" t="s">
-        <v>72</v>
-      </c>
+      <c r="A6" s="6"/>
+      <c r="B6" s="7"/>
     </row>
     <row r="7" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A7" s="6" t="s">
-        <v>73</v>
-      </c>
-      <c r="B7" s="7" t="s">
-        <v>74</v>
-      </c>
+      <c r="A7" s="6"/>
+      <c r="B7" s="7"/>
     </row>
     <row r="8" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A8" s="6" t="s">
-        <v>75</v>
-      </c>
+      <c r="A8" s="6"/>
       <c r="B8" s="7"/>
     </row>
     <row r="9" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A9" s="6" t="s">
-        <v>76</v>
-      </c>
+      <c r="A9" s="6"/>
       <c r="B9" s="7"/>
     </row>
     <row r="10" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A10" s="6" t="s">
-        <v>77</v>
-      </c>
+      <c r="A10" s="6"/>
       <c r="B10" s="7"/>
     </row>
     <row r="11" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A11" s="6" t="s">
-        <v>78</v>
-      </c>
+      <c r="A11" s="6"/>
       <c r="B11" s="7"/>
     </row>
     <row r="12" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A12" s="6" t="s">
-        <v>79</v>
-      </c>
+      <c r="A12" s="6"/>
       <c r="B12" s="7"/>
     </row>
     <row r="13" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A13" s="6" t="s">
-        <v>80</v>
-      </c>
+      <c r="A13" s="6"/>
       <c r="B13" s="7"/>
     </row>
     <row r="14" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A14" s="6" t="s">
-        <v>81</v>
-      </c>
+      <c r="A14" s="6"/>
       <c r="B14" s="7"/>
     </row>
     <row r="15" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A15" s="6" t="s">
-        <v>82</v>
-      </c>
+      <c r="A15" s="6"/>
       <c r="B15" s="7"/>
     </row>
     <row r="16" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A16" s="6" t="s">
-        <v>83</v>
-      </c>
+      <c r="A16" s="6"/>
       <c r="B16" s="7"/>
     </row>
     <row r="17" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A17" s="6" t="s">
-        <v>84</v>
-      </c>
+      <c r="A17" s="6"/>
       <c r="B17" s="7"/>
     </row>
     <row r="18" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A18" s="6" t="s">
-        <v>85</v>
-      </c>
+      <c r="A18" s="6"/>
       <c r="B18" s="7"/>
     </row>
     <row r="19" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A19" s="6" t="s">
-        <v>86</v>
-      </c>
+      <c r="A19" s="6"/>
       <c r="B19" s="7"/>
     </row>
     <row r="20" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A20" s="6" t="s">
-        <v>87</v>
-      </c>
+      <c r="A20" s="6"/>
       <c r="B20" s="7"/>
     </row>
     <row r="21" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A21" s="6" t="s">
-        <v>88</v>
-      </c>
+      <c r="A21" s="6"/>
       <c r="B21" s="7"/>
     </row>
   </sheetData>

--- a/sample_sheet.xlsx
+++ b/sample_sheet.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/YWang/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{667FAAC8-0F2D-6548-86F4-A26327C1403C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A1B04DCD-FEEF-A34B-A67B-FDD6D8DA0304}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="16380" windowHeight="13140" tabRatio="500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="16380" windowHeight="15340" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="atac_chip" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
     <sheet name="input" sheetId="3" r:id="rId3"/>
     <sheet name="core" sheetId="4" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="0" iterateDelta="1E-4"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="ExcelA1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="30">
   <si>
     <t>Field</t>
   </si>
@@ -54,6 +54,24 @@
     <t>Read 2</t>
   </si>
   <si>
+    <t>Hetero_TFAM_cGAS_1</t>
+  </si>
+  <si>
+    <t>Hetero_TFAM_cGAS</t>
+  </si>
+  <si>
+    <t>Hetero_TFAM_cGAS_READ1.fastq.gz</t>
+  </si>
+  <si>
+    <t>Hetero_TFAM_IgG_1</t>
+  </si>
+  <si>
+    <t>Hetero_TFAM_IgG</t>
+  </si>
+  <si>
+    <t>Hetero_TFAM_IgG_READ1.fastq.gz</t>
+  </si>
+  <si>
     <t>WT_MEF_cGAS_1</t>
   </si>
   <si>
@@ -70,6 +88,15 @@
   </si>
   <si>
     <t>WT_MEF_IgG_READ1.fastq.gz</t>
+  </si>
+  <si>
+    <t>Hetero_TFAM_Input_1</t>
+  </si>
+  <si>
+    <t>Hetero_TFAM_Input</t>
+  </si>
+  <si>
+    <t>Hetero_TFAM_Input_READ1.fastq.gz</t>
   </si>
   <si>
     <t>WT_MEF_Input_1</t>
@@ -589,7 +616,7 @@
   <dimension ref="A1:C13"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:G14"/>
+      <selection activeCell="E15" sqref="A2:E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -650,10 +677,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:E4"/>
+  <dimension ref="A1:E7"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B22" sqref="B22"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -726,6 +753,48 @@
         <v>16</v>
       </c>
     </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>17</v>
+      </c>
+      <c r="B5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C5">
+        <v>1</v>
+      </c>
+      <c r="D5" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>20</v>
+      </c>
+      <c r="B6" t="s">
+        <v>21</v>
+      </c>
+      <c r="C6">
+        <v>1</v>
+      </c>
+      <c r="D6" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>23</v>
+      </c>
+      <c r="B7" t="s">
+        <v>24</v>
+      </c>
+      <c r="C7">
+        <v>1</v>
+      </c>
+      <c r="D7" t="s">
+        <v>25</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
@@ -734,10 +803,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:B3"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B21" sqref="B21"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A6" sqref="A6:XFD7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -749,10 +818,10 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>18</v>
+        <v>27</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
@@ -760,7 +829,7 @@
         <v>8</v>
       </c>
       <c r="B2" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
@@ -768,7 +837,23 @@
         <v>11</v>
       </c>
       <c r="B3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
         <v>14</v>
+      </c>
+      <c r="B4" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>17</v>
+      </c>
+      <c r="B5" t="s">
+        <v>23</v>
       </c>
     </row>
   </sheetData>
@@ -798,10 +883,10 @@
   <sheetData>
     <row r="1" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A1" s="5" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>20</v>
+        <v>29</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="16" x14ac:dyDescent="0.2">
